--- a/team_specific_matrix/Northern Colo._A.xlsx
+++ b/team_specific_matrix/Northern Colo._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1584158415841584</v>
+        <v>0.1715328467153285</v>
       </c>
       <c r="C2">
-        <v>0.6138613861386139</v>
+        <v>0.5948905109489051</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01485148514851485</v>
+        <v>0.01094890510948905</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.103960396039604</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1089108910891089</v>
+        <v>0.1058394160583942</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.046875</v>
+        <v>0.04191616766467066</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03125</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.71875</v>
+        <v>0.7065868263473054</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.203125</v>
+        <v>0.2215568862275449</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03448275862068965</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7241379310344828</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2413793103448276</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05521472392638037</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03067484662576687</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2147239263803681</v>
+        <v>0.2394366197183098</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01840490797546012</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2699386503067485</v>
+        <v>0.2394366197183098</v>
       </c>
       <c r="R6">
-        <v>0.07975460122699386</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="S6">
-        <v>0.3312883435582822</v>
+        <v>0.323943661971831</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0979020979020979</v>
+        <v>0.09941520467836257</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02797202797202797</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09090909090909091</v>
+        <v>0.09941520467836257</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01398601398601399</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2167832167832168</v>
+        <v>0.2046783625730994</v>
       </c>
       <c r="R7">
-        <v>0.0979020979020979</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="S7">
-        <v>0.4545454545454545</v>
+        <v>0.4619883040935672</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0684931506849315</v>
+        <v>0.0765661252900232</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01095890410958904</v>
+        <v>0.009280742459396751</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06027397260273973</v>
+        <v>0.06264501160092807</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1123287671232877</v>
+        <v>0.1183294663573086</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01917808219178082</v>
+        <v>0.01624129930394431</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2383561643835616</v>
+        <v>0.2320185614849188</v>
       </c>
       <c r="R8">
-        <v>0.0958904109589041</v>
+        <v>0.08816705336426914</v>
       </c>
       <c r="S8">
-        <v>0.3945205479452055</v>
+        <v>0.3967517401392112</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1047120418848168</v>
+        <v>0.111587982832618</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01047120418848168</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09947643979057591</v>
+        <v>0.1030042918454936</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09424083769633508</v>
+        <v>0.1030042918454936</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01570680628272251</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.225130890052356</v>
+        <v>0.2188841201716738</v>
       </c>
       <c r="R9">
-        <v>0.09424083769633508</v>
+        <v>0.09871244635193133</v>
       </c>
       <c r="S9">
-        <v>0.356020942408377</v>
+        <v>0.3433476394849785</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1066376496191512</v>
+        <v>0.1127241673783091</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0250272034820457</v>
+        <v>0.02305721605465414</v>
       </c>
       <c r="E10">
-        <v>0.001088139281828074</v>
+        <v>0.001707941929974381</v>
       </c>
       <c r="F10">
-        <v>0.06964091403699674</v>
+        <v>0.06917164816396243</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08705114254624592</v>
+        <v>0.08625106746370624</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01849836779107726</v>
+        <v>0.01878736122971819</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2437431991294886</v>
+        <v>0.2356959863364645</v>
       </c>
       <c r="R10">
-        <v>0.08596300326441784</v>
+        <v>0.08710503842869342</v>
       </c>
       <c r="S10">
-        <v>0.3623503808487487</v>
+        <v>0.3654995730145175</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.09852216748768473</v>
+        <v>0.09126984126984126</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09852216748768473</v>
+        <v>0.09126984126984126</v>
       </c>
       <c r="K11">
-        <v>0.1724137931034483</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="L11">
-        <v>0.6059113300492611</v>
+        <v>0.623015873015873</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02463054187192118</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8412698412698413</v>
+        <v>0.8024691358024691</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0873015873015873</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="K12">
-        <v>0.01587301587301587</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="L12">
-        <v>0.02380952380952381</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03174603174603174</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6774193548387096</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3225806451612903</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02380952380952381</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1726190476190476</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="I15">
-        <v>0.05952380952380952</v>
+        <v>0.0625</v>
       </c>
       <c r="J15">
-        <v>0.3571428571428572</v>
+        <v>0.3605769230769231</v>
       </c>
       <c r="K15">
-        <v>0.04166666666666666</v>
+        <v>0.0625</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0119047619047619</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="O15">
-        <v>0.07142857142857142</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2619047619047619</v>
+        <v>0.2403846153846154</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.046875</v>
+        <v>0.04191616766467066</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2265625</v>
+        <v>0.2215568862275449</v>
       </c>
       <c r="I16">
-        <v>0.1171875</v>
+        <v>0.1077844311377246</v>
       </c>
       <c r="J16">
-        <v>0.3203125</v>
+        <v>0.3473053892215569</v>
       </c>
       <c r="K16">
-        <v>0.125</v>
+        <v>0.1137724550898204</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0234375</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.015625</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.125</v>
+        <v>0.125748502994012</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.006818181818181818</v>
+        <v>0.01330798479087452</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1659090909090909</v>
+        <v>0.1615969581749049</v>
       </c>
       <c r="I17">
-        <v>0.1</v>
+        <v>0.1083650190114068</v>
       </c>
       <c r="J17">
-        <v>0.4181818181818182</v>
+        <v>0.4106463878326996</v>
       </c>
       <c r="K17">
-        <v>0.08863636363636364</v>
+        <v>0.08555133079847908</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01818181818181818</v>
+        <v>0.01520912547528517</v>
       </c>
       <c r="N17">
-        <v>0.002272727272727273</v>
+        <v>0.001901140684410646</v>
       </c>
       <c r="O17">
-        <v>0.0659090909090909</v>
+        <v>0.06844106463878327</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1340909090909091</v>
+        <v>0.1349809885931559</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01234567901234568</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2037037037037037</v>
+        <v>0.1878172588832487</v>
       </c>
       <c r="I18">
-        <v>0.1419753086419753</v>
+        <v>0.1472081218274112</v>
       </c>
       <c r="J18">
-        <v>0.4444444444444444</v>
+        <v>0.4467005076142132</v>
       </c>
       <c r="K18">
-        <v>0.08641975308641975</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006172839506172839</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05555555555555555</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.04938271604938271</v>
+        <v>0.05076142131979695</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01892744479495268</v>
+        <v>0.0247229326513214</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2103049421661409</v>
+        <v>0.2020460358056266</v>
       </c>
       <c r="I19">
-        <v>0.1041009463722398</v>
+        <v>0.0988917306052856</v>
       </c>
       <c r="J19">
-        <v>0.3575184016824395</v>
+        <v>0.3742540494458653</v>
       </c>
       <c r="K19">
-        <v>0.08832807570977919</v>
+        <v>0.0937766410912191</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01997896950578339</v>
+        <v>0.01705029838022165</v>
       </c>
       <c r="N19">
-        <v>0.001051524710830704</v>
+        <v>0.0008525149190110827</v>
       </c>
       <c r="O19">
-        <v>0.0683491062039958</v>
+        <v>0.06820119352088662</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1314405888538381</v>
+        <v>0.1202046035805627</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Northern Colo._A.xlsx
+++ b/team_specific_matrix/Northern Colo._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1715328467153285</v>
+        <v>0.1672354948805461</v>
       </c>
       <c r="C2">
-        <v>0.5948905109489051</v>
+        <v>0.6040955631399317</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01094890510948905</v>
+        <v>0.0136518771331058</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1167883211678832</v>
+        <v>0.1160409556313993</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1058394160583942</v>
+        <v>0.09897610921501707</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04191616766467066</v>
+        <v>0.04371584699453552</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02994011976047904</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7065868263473054</v>
+        <v>0.6994535519125683</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2215568862275449</v>
+        <v>0.2295081967213115</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05882352941176471</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7058823529411765</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2352941176470588</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06572769953051644</v>
+        <v>0.07203389830508475</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02816901408450704</v>
+        <v>0.02966101694915254</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2394366197183098</v>
+        <v>0.2245762711864407</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0187793427230047</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2394366197183098</v>
+        <v>0.2415254237288136</v>
       </c>
       <c r="R6">
-        <v>0.08450704225352113</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="S6">
-        <v>0.323943661971831</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09941520467836257</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005847953216374269</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02923976608187134</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09941520467836257</v>
+        <v>0.09693877551020408</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01169590643274854</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2046783625730994</v>
+        <v>0.1989795918367347</v>
       </c>
       <c r="R7">
-        <v>0.08771929824561403</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="S7">
-        <v>0.4619883040935672</v>
+        <v>0.4693877551020408</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0765661252900232</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009280742459396751</v>
+        <v>0.01024590163934426</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06264501160092807</v>
+        <v>0.06352459016393443</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1183294663573086</v>
+        <v>0.110655737704918</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01624129930394431</v>
+        <v>0.02049180327868852</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2320185614849188</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="R8">
-        <v>0.08816705336426914</v>
+        <v>0.0860655737704918</v>
       </c>
       <c r="S8">
-        <v>0.3967517401392112</v>
+        <v>0.4057377049180328</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.111587982832618</v>
+        <v>0.1050583657587549</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008583690987124463</v>
+        <v>0.01167315175097276</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1030042918454936</v>
+        <v>0.09727626459143969</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1030042918454936</v>
+        <v>0.1089494163424125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0128755364806867</v>
+        <v>0.01167315175097276</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2188841201716738</v>
+        <v>0.2334630350194553</v>
       </c>
       <c r="R9">
-        <v>0.09871244635193133</v>
+        <v>0.0933852140077821</v>
       </c>
       <c r="S9">
-        <v>0.3433476394849785</v>
+        <v>0.3385214007782101</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1127241673783091</v>
+        <v>0.1090487238979118</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02305721605465414</v>
+        <v>0.02242846094354215</v>
       </c>
       <c r="E10">
-        <v>0.001707941929974381</v>
+        <v>0.001546790409899459</v>
       </c>
       <c r="F10">
-        <v>0.06917164816396243</v>
+        <v>0.07037896365042537</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08625106746370624</v>
+        <v>0.08507347254447023</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01878736122971819</v>
+        <v>0.0185614849187935</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2356959863364645</v>
+        <v>0.2382057231245166</v>
       </c>
       <c r="R10">
-        <v>0.08710503842869342</v>
+        <v>0.09203402938901779</v>
       </c>
       <c r="S10">
-        <v>0.3654995730145175</v>
+        <v>0.362722351121423</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.09126984126984126</v>
+        <v>0.09507042253521127</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09126984126984126</v>
+        <v>0.09154929577464789</v>
       </c>
       <c r="K11">
-        <v>0.1587301587301587</v>
+        <v>0.1654929577464789</v>
       </c>
       <c r="L11">
-        <v>0.623015873015873</v>
+        <v>0.6161971830985915</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03571428571428571</v>
+        <v>0.03169014084507042</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8024691358024691</v>
+        <v>0.8111111111111111</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1234567901234568</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="K12">
-        <v>0.01234567901234568</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="L12">
-        <v>0.02469135802469136</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03703703703703703</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6285714285714286</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3714285714285714</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01923076923076923</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1634615384615385</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="I15">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J15">
-        <v>0.3605769230769231</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="K15">
-        <v>0.0625</v>
+        <v>0.06302521008403361</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01442307692307692</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="N15">
-        <v>0.004807692307692308</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="O15">
-        <v>0.07211538461538461</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2403846153846154</v>
+        <v>0.2436974789915966</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04191616766467066</v>
+        <v>0.03825136612021858</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2215568862275449</v>
+        <v>0.2185792349726776</v>
       </c>
       <c r="I16">
-        <v>0.1077844311377246</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="J16">
-        <v>0.3473053892215569</v>
+        <v>0.3497267759562842</v>
       </c>
       <c r="K16">
-        <v>0.1137724550898204</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01796407185628742</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02395209580838323</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.125748502994012</v>
+        <v>0.1311475409836066</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01330798479087452</v>
+        <v>0.01188455008488964</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1615969581749049</v>
+        <v>0.166383701188455</v>
       </c>
       <c r="I17">
-        <v>0.1083650190114068</v>
+        <v>0.1086587436332767</v>
       </c>
       <c r="J17">
-        <v>0.4106463878326996</v>
+        <v>0.4125636672325976</v>
       </c>
       <c r="K17">
-        <v>0.08555133079847908</v>
+        <v>0.08488964346349745</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01520912547528517</v>
+        <v>0.01528013582342954</v>
       </c>
       <c r="N17">
-        <v>0.001901140684410646</v>
+        <v>0.001697792869269949</v>
       </c>
       <c r="O17">
-        <v>0.06844106463878327</v>
+        <v>0.06960950764006792</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1349809885931559</v>
+        <v>0.1290322580645161</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01015228426395939</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1878172588832487</v>
+        <v>0.2036199095022624</v>
       </c>
       <c r="I18">
-        <v>0.1472081218274112</v>
+        <v>0.1402714932126697</v>
       </c>
       <c r="J18">
-        <v>0.4467005076142132</v>
+        <v>0.4343891402714932</v>
       </c>
       <c r="K18">
-        <v>0.08629441624365482</v>
+        <v>0.09049773755656108</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01522842639593909</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05583756345177665</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05076142131979695</v>
+        <v>0.05429864253393665</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0247229326513214</v>
+        <v>0.02530674846625767</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2020460358056266</v>
+        <v>0.200920245398773</v>
       </c>
       <c r="I19">
-        <v>0.0988917306052856</v>
+        <v>0.09892638036809816</v>
       </c>
       <c r="J19">
-        <v>0.3742540494458653</v>
+        <v>0.3711656441717792</v>
       </c>
       <c r="K19">
-        <v>0.0937766410912191</v>
+        <v>0.09585889570552147</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01705029838022165</v>
+        <v>0.01993865030674847</v>
       </c>
       <c r="N19">
-        <v>0.0008525149190110827</v>
+        <v>0.0007668711656441718</v>
       </c>
       <c r="O19">
-        <v>0.06820119352088662</v>
+        <v>0.07131901840490798</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1202046035805627</v>
+        <v>0.1157975460122699</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Northern Colo._A.xlsx
+++ b/team_specific_matrix/Northern Colo._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1672354948805461</v>
+        <v>0.1638795986622074</v>
       </c>
       <c r="C2">
-        <v>0.6040955631399317</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0136518771331058</v>
+        <v>0.01337792642140468</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1160409556313993</v>
+        <v>0.1137123745819398</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09897610921501707</v>
+        <v>0.1003344481605351</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04371584699453552</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0273224043715847</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6994535519125683</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2295081967213115</v>
+        <v>0.2287234042553191</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7368421052631579</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2105263157894737</v>
+        <v>0.2051282051282051</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07203389830508475</v>
+        <v>0.06967213114754098</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02966101694915254</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2245762711864407</v>
+        <v>0.2172131147540984</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01694915254237288</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2415254237288136</v>
+        <v>0.2540983606557377</v>
       </c>
       <c r="R6">
-        <v>0.07627118644067797</v>
+        <v>0.0778688524590164</v>
       </c>
       <c r="S6">
-        <v>0.3389830508474576</v>
+        <v>0.3360655737704918</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09183673469387756</v>
+        <v>0.09359605911330049</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00510204081632653</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09693877551020408</v>
+        <v>0.09359605911330049</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01530612244897959</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1989795918367347</v>
+        <v>0.2019704433497537</v>
       </c>
       <c r="R7">
-        <v>0.08673469387755102</v>
+        <v>0.08374384236453201</v>
       </c>
       <c r="S7">
-        <v>0.4693877551020408</v>
+        <v>0.4729064039408867</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07377049180327869</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01024590163934426</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06352459016393443</v>
+        <v>0.0615079365079365</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.110655737704918</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02049180327868852</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2295081967213115</v>
+        <v>0.2341269841269841</v>
       </c>
       <c r="R8">
-        <v>0.0860655737704918</v>
+        <v>0.08531746031746032</v>
       </c>
       <c r="S8">
-        <v>0.4057377049180328</v>
+        <v>0.4047619047619048</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1050583657587549</v>
+        <v>0.1064638783269962</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01167315175097276</v>
+        <v>0.01140684410646388</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09727626459143969</v>
+        <v>0.09505703422053231</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1089494163424125</v>
+        <v>0.1064638783269962</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01167315175097276</v>
+        <v>0.01140684410646388</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2334630350194553</v>
+        <v>0.2357414448669201</v>
       </c>
       <c r="R9">
-        <v>0.0933852140077821</v>
+        <v>0.09125475285171103</v>
       </c>
       <c r="S9">
-        <v>0.3385214007782101</v>
+        <v>0.3422053231939163</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1090487238979118</v>
+        <v>0.1075187969924812</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02242846094354215</v>
+        <v>0.02180451127819549</v>
       </c>
       <c r="E10">
-        <v>0.001546790409899459</v>
+        <v>0.001503759398496241</v>
       </c>
       <c r="F10">
-        <v>0.07037896365042537</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08507347254447023</v>
+        <v>0.08270676691729323</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0185614849187935</v>
+        <v>0.01804511278195489</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2382057231245166</v>
+        <v>0.2443609022556391</v>
       </c>
       <c r="R10">
-        <v>0.09203402938901779</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="S10">
-        <v>0.362722351121423</v>
+        <v>0.3609022556390977</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.09507042253521127</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09154929577464789</v>
+        <v>0.09027777777777778</v>
       </c>
       <c r="K11">
-        <v>0.1654929577464789</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L11">
-        <v>0.6161971830985915</v>
+        <v>0.6145833333333334</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03169014084507042</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8111111111111111</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1222222222222222</v>
+        <v>0.1263736263736264</v>
       </c>
       <c r="K12">
-        <v>0.01111111111111111</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="L12">
-        <v>0.02222222222222222</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03333333333333333</v>
+        <v>0.03296703296703297</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6511627906976745</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3255813953488372</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02325581395348837</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01680672268907563</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1764705882352941</v>
+        <v>0.1769547325102881</v>
       </c>
       <c r="I15">
-        <v>0.05882352941176471</v>
+        <v>0.05761316872427984</v>
       </c>
       <c r="J15">
-        <v>0.3529411764705883</v>
+        <v>0.3580246913580247</v>
       </c>
       <c r="K15">
-        <v>0.06302521008403361</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01680672268907563</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="N15">
-        <v>0.004201680672268907</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="O15">
-        <v>0.06722689075630252</v>
+        <v>0.06584362139917696</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2436974789915966</v>
+        <v>0.242798353909465</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03825136612021858</v>
+        <v>0.03723404255319149</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2185792349726776</v>
+        <v>0.2234042553191489</v>
       </c>
       <c r="I16">
-        <v>0.1038251366120219</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="J16">
-        <v>0.3497267759562842</v>
+        <v>0.3457446808510639</v>
       </c>
       <c r="K16">
-        <v>0.1147540983606557</v>
+        <v>0.1117021276595745</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01639344262295082</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0273224043715847</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1311475409836066</v>
+        <v>0.1329787234042553</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01188455008488964</v>
+        <v>0.01127214170692432</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.166383701188455</v>
+        <v>0.1658615136876006</v>
       </c>
       <c r="I17">
-        <v>0.1086587436332767</v>
+        <v>0.107890499194847</v>
       </c>
       <c r="J17">
-        <v>0.4125636672325976</v>
+        <v>0.4122383252818035</v>
       </c>
       <c r="K17">
-        <v>0.08488964346349745</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01528013582342954</v>
+        <v>0.02093397745571659</v>
       </c>
       <c r="N17">
-        <v>0.001697792869269949</v>
+        <v>0.001610305958132045</v>
       </c>
       <c r="O17">
-        <v>0.06960950764006792</v>
+        <v>0.06924315619967794</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1290322580645161</v>
+        <v>0.1288244766505636</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.009049773755656109</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2036199095022624</v>
+        <v>0.2062780269058296</v>
       </c>
       <c r="I18">
-        <v>0.1402714932126697</v>
+        <v>0.1390134529147982</v>
       </c>
       <c r="J18">
-        <v>0.4343891402714932</v>
+        <v>0.4304932735426009</v>
       </c>
       <c r="K18">
-        <v>0.09049773755656108</v>
+        <v>0.08968609865470852</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01357466063348416</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05429864253393665</v>
+        <v>0.05381165919282511</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05429864253393665</v>
+        <v>0.05381165919282511</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02530674846625767</v>
+        <v>0.02466367713004484</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.200920245398773</v>
+        <v>0.2010463378176383</v>
       </c>
       <c r="I19">
-        <v>0.09892638036809816</v>
+        <v>0.09865470852017937</v>
       </c>
       <c r="J19">
-        <v>0.3711656441717792</v>
+        <v>0.375186846038864</v>
       </c>
       <c r="K19">
-        <v>0.09585889570552147</v>
+        <v>0.09491778774289986</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01993865030674847</v>
+        <v>0.02017937219730942</v>
       </c>
       <c r="N19">
-        <v>0.0007668711656441718</v>
+        <v>0.0007473841554559044</v>
       </c>
       <c r="O19">
-        <v>0.07131901840490798</v>
+        <v>0.07100149476831091</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1157975460122699</v>
+        <v>0.1136023916292975</v>
       </c>
     </row>
   </sheetData>
